--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="57">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4512" windowWidth="14340" xWindow="384" yWindow="24"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NI4WeeklyCat_A" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NI4WeeklyCat_A" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="58">
   <si>
     <t>TC</t>
   </si>
@@ -188,14 +193,16 @@
   </si>
   <si>
     <t>FourWeekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,55 +249,58 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -301,10 +311,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -339,7 +349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,9 +382,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,6 +434,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,7 +506,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -471,13 +515,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -487,7 +531,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -496,7 +540,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -505,7 +549,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -515,12 +559,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -551,7 +595,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -570,7 +614,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -582,22 +626,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -625,7 +669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -639,7 +683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -653,7 +697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="43.2" r="5" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -667,7 +711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -681,7 +725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="28.8" r="7" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -695,7 +739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="72" r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -710,30 +754,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="18.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.21875" collapsed="true"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -756,7 +800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -773,7 +817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -790,7 +834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -807,7 +851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -824,7 +868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -841,7 +885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -858,7 +902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -875,7 +919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -892,7 +936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -910,35 +954,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="47.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="62.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="47.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
@@ -979,7 +1023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.2" r="2" s="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>55</v>
       </c>
@@ -1014,7 +1058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row ht="28.8" r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>55</v>
       </c>
@@ -1050,7 +1094,7 @@
       </c>
       <c r="L3" s="11"/>
     </row>
-    <row ht="28.8" r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>55</v>
       </c>
@@ -1086,7 +1130,7 @@
       </c>
       <c r="L4" s="11"/>
     </row>
-    <row ht="28.8" r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>55</v>
       </c>
@@ -1122,7 +1166,7 @@
       </c>
       <c r="L5" s="11"/>
     </row>
-    <row ht="28.8" r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>55</v>
       </c>
@@ -1158,7 +1202,7 @@
       </c>
       <c r="L6" s="11"/>
     </row>
-    <row ht="28.8" r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>55</v>
       </c>
@@ -1194,7 +1238,7 @@
       </c>
       <c r="L7" s="11"/>
     </row>
-    <row ht="28.8" r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>55</v>
       </c>
@@ -1230,7 +1274,7 @@
       </c>
       <c r="L8" s="11"/>
     </row>
-    <row ht="28.8" r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>55</v>
       </c>
@@ -1266,7 +1310,7 @@
       </c>
       <c r="L9" s="11"/>
     </row>
-    <row ht="28.8" r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>55</v>
       </c>
@@ -1304,45 +1348,45 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId11" ref="E2"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId12" ref="E3"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId13" ref="E4"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId14" ref="E5"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId15" ref="E6"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId16" ref="E7"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId17" ref="E8"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId18" ref="E9"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId19" ref="E10"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId10" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="50.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="53.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="6" width="26.21875" collapsed="true"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="53.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" style="6" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
@@ -1386,7 +1430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>55</v>
       </c>
@@ -1409,7 +1453,7 @@
         <v>46</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>53</v>
@@ -1426,9 +1470,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="3" windowHeight="4515" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NI4WeeklyCat_A" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NI4WeeklyCat_A" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="58">
   <si>
     <t>TC</t>
   </si>
@@ -202,6 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -249,52 +250,52 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -311,10 +312,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -349,7 +350,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,7 +402,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,7 +507,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -515,13 +516,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -531,7 +532,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -540,7 +541,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -549,7 +550,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -559,12 +560,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -595,7 +596,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -614,7 +615,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -626,7 +627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -635,10 +636,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -669,7 +670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -683,7 +684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -697,7 +698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -725,7 +726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="7" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -739,7 +740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -754,13 +755,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -769,12 +770,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -954,13 +955,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -969,20 +970,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="47.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="47.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
@@ -1023,7 +1024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.15" r="2" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>55</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>55</v>
       </c>
@@ -1094,7 +1095,7 @@
       </c>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>55</v>
       </c>
@@ -1130,7 +1131,7 @@
       </c>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>55</v>
       </c>
@@ -1166,7 +1167,7 @@
       </c>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>55</v>
       </c>
@@ -1202,7 +1203,7 @@
       </c>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>55</v>
       </c>
@@ -1238,7 +1239,7 @@
       </c>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>55</v>
       </c>
@@ -1274,7 +1275,7 @@
       </c>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>55</v>
       </c>
@@ -1310,7 +1311,7 @@
       </c>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>55</v>
       </c>
@@ -1348,23 +1349,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId6" ref="E7" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId7" ref="E8" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId8" ref="E9" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId9" ref="E10" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId10" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
@@ -1373,20 +1374,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.28515625" style="6" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="26.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
@@ -1430,7 +1431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="63.75" r="2" s="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>55</v>
       </c>
@@ -1470,9 +1471,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="57">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="58">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
+    <workbookView activeTab="2" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NI4WeeklyCat_A" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NI4WeeklyCat_A" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="57">
   <si>
     <t>TC</t>
   </si>
@@ -199,6 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,52 +247,52 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -308,10 +309,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -346,7 +347,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,7 +399,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,7 +504,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -512,13 +513,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -528,7 +529,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -537,7 +538,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -546,7 +547,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -556,12 +557,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -592,7 +593,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -611,7 +612,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -623,7 +624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -632,10 +633,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -680,7 +681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -694,7 +695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -722,7 +723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="7" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -736,7 +737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -751,13 +752,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -766,12 +767,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -951,13 +952,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
@@ -966,20 +967,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="47.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="47.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
@@ -1020,7 +1021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.15" r="2" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>54</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>54</v>
       </c>
@@ -1091,7 +1092,7 @@
       </c>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>54</v>
       </c>
@@ -1127,7 +1128,7 @@
       </c>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>54</v>
       </c>
@@ -1163,7 +1164,7 @@
       </c>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>54</v>
       </c>
@@ -1199,7 +1200,7 @@
       </c>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>54</v>
       </c>
@@ -1235,7 +1236,7 @@
       </c>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>54</v>
       </c>
@@ -1271,7 +1272,7 @@
       </c>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>54</v>
       </c>
@@ -1307,7 +1308,7 @@
       </c>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>54</v>
       </c>
@@ -1345,23 +1346,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId6" ref="E7"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId7" ref="E8"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId8" ref="E9"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId9" ref="E10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId10" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -1370,20 +1371,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.28515625" style="6" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="26.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.75" r="2" s="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>54</v>
       </c>
@@ -1467,9 +1468,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NI4WeeklyCat_A" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NI4WeeklyCat_A" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="57">
   <si>
     <t>TC</t>
   </si>
@@ -78,33 +78,6 @@
     <t>PayrollFrequency</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 101</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 102</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 103</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 104</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 105</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 106</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 107</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 108</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 109</t>
-  </si>
-  <si>
     <t>TestReports</t>
   </si>
   <si>
@@ -186,20 +159,46 @@
     <t>3</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
-    <t>FourWeekly_Payroll</t>
-  </si>
-  <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 494</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 495</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 496</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 497</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 498</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 499</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 500</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 501</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 502</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO NI4WCA EMPLOYER</t>
+  </si>
+  <si>
+    <t>NI4WCA_Payroll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,52 +246,49 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -309,10 +305,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -347,7 +343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,7 +395,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,7 +500,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -513,13 +509,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -529,7 +525,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -538,7 +534,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -547,7 +543,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -557,12 +553,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -593,7 +589,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -612,7 +608,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -624,7 +620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -633,10 +629,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -655,10 +651,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -667,9 +663,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -681,26 +677,26 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>32</v>
+    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="5" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>27</v>
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -723,8 +719,8 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="7" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -737,7 +733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="75" r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -752,27 +748,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="18.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -799,678 +795,680 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>18</v>
+      <c r="A2" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="13">
+        <v>25</v>
+      </c>
+      <c r="C2" s="11">
         <v>8164.52</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="A3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="11">
         <v>8164.65</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>30</v>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="A4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="11">
         <v>8164.52</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>30</v>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11">
+        <v>8164.65</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="13">
-        <v>8164.65</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="A6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="11">
         <v>45006.52</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="A7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="11">
         <v>45006.65</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="A8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="11">
         <v>45009.77</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>45009.9</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>30</v>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="A10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="11">
         <v>63050</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="H5" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="47.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="47.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="H2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="K2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="G3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="31.15" r="2" s="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="I3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="11"/>
-    </row>
-    <row ht="45" r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="11"/>
-    </row>
-    <row ht="45" r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="11"/>
-    </row>
-    <row ht="45" r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="11"/>
-    </row>
-    <row ht="45" r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="11"/>
-    </row>
-    <row ht="45" r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="11"/>
-    </row>
-    <row ht="45" r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="11"/>
-    </row>
-    <row ht="45" r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="11"/>
+      <c r="E10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId6" ref="E7"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId7" ref="E8"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId8" ref="E9"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId9" ref="E10"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2:A10" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId10" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="50.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="53.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="6" width="26.28515625" collapsed="true"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="53.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" style="5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="H2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="42.75" r="2" s="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
+    <workbookView xWindow="396" yWindow="36" windowWidth="14340" windowHeight="4512" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NI4WeeklyCat_A" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NI4WeeklyCat_A" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="57">
   <si>
     <t>TC</t>
   </si>
@@ -123,83 +118,82 @@
     <t>aa</t>
   </si>
   <si>
+    <t>A  All other employees</t>
+  </si>
+  <si>
+    <t>ExecuteQuery</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>EmployerName</t>
+  </si>
+  <si>
+    <t>Payrolid</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>MonthName</t>
+  </si>
+  <si>
+    <t>ExcelInputSheet</t>
+  </si>
+  <si>
+    <t>FirstReportNameInApplication</t>
+  </si>
+  <si>
+    <t>TestResultExcelFilePath</t>
+  </si>
+  <si>
+    <t>worksheetNo</t>
+  </si>
+  <si>
+    <t>PayrollView</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH - PAYROLL AUTOMATION CHECK</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Four Week-4</t>
+  </si>
+  <si>
+    <t>TestReportWorksheetNo</t>
+  </si>
+  <si>
+    <t>Payroll Suite 4WeeklyCatA201718.xlsx</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
+  </si>
+  <si>
+    <t>FourWeekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
+  </si>
+  <si>
     <t>NI4WeeklyCat_A</t>
-  </si>
-  <si>
-    <t>A  All other employees</t>
-  </si>
-  <si>
-    <t>ExecuteQuery</t>
-  </si>
-  <si>
-    <t>SSS</t>
-  </si>
-  <si>
-    <t>EmployerName</t>
-  </si>
-  <si>
-    <t>Payrolid</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>MonthName</t>
-  </si>
-  <si>
-    <t>ExcelInputSheet</t>
-  </si>
-  <si>
-    <t>FirstReportNameInApplication</t>
-  </si>
-  <si>
-    <t>TestResultExcelFilePath</t>
-  </si>
-  <si>
-    <t>worksheetNo</t>
-  </si>
-  <si>
-    <t>PayrollView</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH - PAYROLL AUTOMATION CHECK</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Four Week-4</t>
-  </si>
-  <si>
-    <t>TestReportWorksheetNo</t>
-  </si>
-  <si>
-    <t>Payroll Suite 4WeeklyCatA201718.xlsx</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
-    <t>FourWeekly_Payroll</t>
-  </si>
-  <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,52 +241,51 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -309,10 +302,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -347,7 +340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,26 +373,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -432,23 +408,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,7 +463,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -513,13 +472,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -529,7 +488,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -538,7 +497,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -547,7 +506,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -557,12 +516,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -593,7 +552,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -612,7 +571,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -624,22 +583,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,12 +612,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -667,9 +626,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -681,22 +640,22 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="5" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -709,7 +668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -723,8 +682,8 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="7" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -737,7 +696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="75" r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -752,30 +711,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="18.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.44140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -798,14 +757,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="13">
+        <v>33</v>
+      </c>
+      <c r="C2" s="12">
         <v>8164.52</v>
       </c>
       <c r="D2" t="s">
@@ -815,136 +774,136 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="12">
         <v>8164.65</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="12">
         <v>8164.52</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="12">
         <v>8164.65</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="12">
         <v>45006.52</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="12">
         <v>45006.65</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="12">
         <v>45009.77</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="12">
         <v>45009.9</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="12">
         <v>63050</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -952,525 +911,525 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="47.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="47.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="31.15" r="2" s="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="H2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="D3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="I3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="E4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="F5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="D6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="I6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="E7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="11"/>
-    </row>
-    <row ht="45" r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="F8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="I9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="E10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="11"/>
-    </row>
-    <row ht="45" r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="11"/>
-    </row>
-    <row ht="45" r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="11"/>
-    </row>
-    <row ht="45" r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="11"/>
-    </row>
-    <row ht="45" r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="11"/>
-    </row>
-    <row ht="45" r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="11"/>
-    </row>
-    <row ht="45" r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="11"/>
+      <c r="K10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId6" ref="E7"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId7" ref="E8"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId8" ref="E9"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId9" ref="E10"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId10" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="50.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="53.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="6" width="26.28515625" collapsed="true"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="53.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.33203125" style="5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="42.75" r="2" s="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="H2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="I2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3"/>
+    <workbookView xWindow="396" yWindow="36" windowWidth="14340" windowHeight="4512" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -198,7 +193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -343,7 +338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,26 +371,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,23 +406,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -627,15 +588,15 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -663,7 +624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -677,7 +638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -705,7 +666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -757,21 +718,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.44140625" style="4" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -794,7 +755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>46</v>
       </c>
@@ -811,7 +772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>47</v>
       </c>
@@ -828,7 +789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>48</v>
       </c>
@@ -845,7 +806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>49</v>
       </c>
@@ -862,7 +823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>50</v>
       </c>
@@ -879,7 +840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>51</v>
       </c>
@@ -896,7 +857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>52</v>
       </c>
@@ -913,7 +874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>53</v>
       </c>
@@ -930,7 +891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>54</v>
       </c>
@@ -961,19 +922,19 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="47.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="47.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.33203125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1017,7 +978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>55</v>
       </c>
@@ -1268,7 +1229,7 @@
       </c>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>55</v>
       </c>
@@ -1304,7 +1265,7 @@
       </c>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -1362,23 +1323,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="53.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.33203125" style="5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="36" windowWidth="14340" windowHeight="4512" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="4512" windowWidth="14340" xWindow="396" yWindow="36"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NI4WeeklyCat_A" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NI4WeeklyCat_A" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="57">
   <si>
     <t>TC</t>
   </si>
@@ -194,6 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,49 +242,49 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -300,10 +301,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -461,7 +462,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -470,13 +471,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -486,7 +487,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -495,7 +496,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -504,7 +505,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -514,12 +515,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -550,7 +551,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -569,7 +570,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -581,7 +582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -590,13 +591,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -624,7 +625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -638,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -652,7 +653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -666,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -680,7 +681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="7" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -694,7 +695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -709,13 +710,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -724,15 +725,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.44140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="18.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,13 +910,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView topLeftCell="H5" workbookViewId="0">
@@ -924,20 +925,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="47.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="47.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -978,7 +979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.2" r="2" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>55</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>55</v>
       </c>
@@ -1049,7 +1050,7 @@
       </c>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>55</v>
       </c>
@@ -1085,7 +1086,7 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>55</v>
       </c>
@@ -1121,7 +1122,7 @@
       </c>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>55</v>
       </c>
@@ -1157,7 +1158,7 @@
       </c>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>55</v>
       </c>
@@ -1193,7 +1194,7 @@
       </c>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>55</v>
       </c>
@@ -1229,7 +1230,7 @@
       </c>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>55</v>
       </c>
@@ -1265,7 +1266,7 @@
       </c>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -1303,24 +1304,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2:A10" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId6" ref="E7"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId7" ref="E8"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId8" ref="E9"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId9" ref="E10"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId10" ref="A2:A10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId11" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1329,20 +1330,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.33203125" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="26.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1386,7 +1387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.75" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>55</v>
       </c>
@@ -1426,10 +1427,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="57">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="57">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="57">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="57">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="57">
   <si>
     <t>TC</t>
   </si>
